--- a/Software Systems Development/Timelogs/SSD Timelog.xlsx
+++ b/Software Systems Development/Timelogs/SSD Timelog.xlsx
@@ -178,10 +178,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,653 +558,653 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.90500000000000003</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="7">
         <f>E2 + E3 + E4 + E5</f>
-        <v>0.90500000000000003</v>
+        <v>1.905</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
